--- a/Fulton Hogan NZ/35443/ITP_ Generic.xlsx
+++ b/Fulton Hogan NZ/35443/ITP_ Generic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatd\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Fulton Hogan NZ\35443\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87654EE8-ED0A-47BE-9113-602EDC0EB615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C717CDC3-ECDE-4376-9784-DABA7D1F3534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="690" windowWidth="28890" windowHeight="18450" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Footpath &amp; KC" sheetId="14" r:id="rId1"/>
@@ -2342,7 +2342,7 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="350">
+  <cellXfs count="349">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2929,6 +2929,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2980,31 +3014,40 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3024,6 +3067,165 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3049,164 +3251,119 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -3214,166 +3371,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4068,8 +4065,8 @@
   </sheetPr>
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -4089,30 +4086,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="215" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="206"/>
+      <c r="B1" s="216"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="217"/>
     </row>
     <row r="2" spans="1:10" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="218" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="208"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="209"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="220"/>
     </row>
     <row r="3" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -4144,17 +4141,17 @@
       </c>
     </row>
     <row r="4" spans="1:10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="215" t="s">
+      <c r="A4" s="226" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="216"/>
-      <c r="G4" s="216"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="217"/>
+      <c r="B4" s="227"/>
+      <c r="C4" s="227"/>
+      <c r="D4" s="227"/>
+      <c r="E4" s="227"/>
+      <c r="F4" s="227"/>
+      <c r="G4" s="227"/>
+      <c r="H4" s="227"/>
+      <c r="I4" s="228"/>
     </row>
     <row r="5" spans="1:10" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="170">
@@ -4186,17 +4183,17 @@
       </c>
     </row>
     <row r="6" spans="1:10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="210" t="s">
+      <c r="A6" s="221" t="s">
         <v>221</v>
       </c>
-      <c r="B6" s="211"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="211"/>
-      <c r="H6" s="211"/>
-      <c r="I6" s="211"/>
+      <c r="B6" s="222"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="222"/>
+      <c r="F6" s="222"/>
+      <c r="G6" s="222"/>
+      <c r="H6" s="222"/>
+      <c r="I6" s="222"/>
       <c r="J6" s="57"/>
     </row>
     <row r="7" spans="1:10" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -4350,17 +4347,17 @@
       <c r="J11" s="57"/>
     </row>
     <row r="12" spans="1:10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="212" t="s">
+      <c r="A12" s="223" t="s">
         <v>147</v>
       </c>
-      <c r="B12" s="213"/>
-      <c r="C12" s="213"/>
-      <c r="D12" s="213"/>
-      <c r="E12" s="213"/>
-      <c r="F12" s="213"/>
-      <c r="G12" s="213"/>
-      <c r="H12" s="213"/>
-      <c r="I12" s="214"/>
+      <c r="B12" s="224"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="224"/>
+      <c r="F12" s="224"/>
+      <c r="G12" s="224"/>
+      <c r="H12" s="224"/>
+      <c r="I12" s="225"/>
       <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -4631,17 +4628,17 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="212" t="s">
+      <c r="A22" s="223" t="s">
         <v>314</v>
       </c>
-      <c r="B22" s="213"/>
-      <c r="C22" s="213"/>
-      <c r="D22" s="213"/>
-      <c r="E22" s="213"/>
-      <c r="F22" s="213"/>
-      <c r="G22" s="213"/>
-      <c r="H22" s="213"/>
-      <c r="I22" s="214"/>
+      <c r="B22" s="224"/>
+      <c r="C22" s="224"/>
+      <c r="D22" s="224"/>
+      <c r="E22" s="224"/>
+      <c r="F22" s="224"/>
+      <c r="G22" s="224"/>
+      <c r="H22" s="224"/>
+      <c r="I22" s="225"/>
     </row>
     <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A23" s="155">
@@ -4703,55 +4700,55 @@
       <c r="J24" s="57"/>
     </row>
     <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="201" t="s">
+      <c r="A25" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="202"/>
-      <c r="C25" s="202"/>
-      <c r="D25" s="202"/>
-      <c r="E25" s="202"/>
-      <c r="F25" s="202"/>
-      <c r="G25" s="202"/>
-      <c r="H25" s="202"/>
-      <c r="I25" s="203"/>
+      <c r="B25" s="213"/>
+      <c r="C25" s="213"/>
+      <c r="D25" s="213"/>
+      <c r="E25" s="213"/>
+      <c r="F25" s="213"/>
+      <c r="G25" s="213"/>
+      <c r="H25" s="213"/>
+      <c r="I25" s="214"/>
     </row>
     <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="218" t="s">
+      <c r="A26" s="203" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="219"/>
+      <c r="B26" s="204"/>
       <c r="C26" s="12" t="s">
         <v>256</v>
       </c>
       <c r="D26" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="220"/>
-      <c r="F26" s="220"/>
+      <c r="E26" s="205"/>
+      <c r="F26" s="205"/>
       <c r="G26" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="221"/>
-      <c r="I26" s="222"/>
+      <c r="H26" s="206"/>
+      <c r="I26" s="207"/>
     </row>
     <row r="27" spans="1:10" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="223" t="s">
+      <c r="A27" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="224"/>
+      <c r="B27" s="209"/>
       <c r="C27" s="14" t="s">
         <v>148</v>
       </c>
       <c r="D27" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="225"/>
-      <c r="F27" s="226"/>
+      <c r="E27" s="210"/>
+      <c r="F27" s="211"/>
       <c r="G27" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="221"/>
-      <c r="I27" s="222"/>
+      <c r="H27" s="206"/>
+      <c r="I27" s="207"/>
     </row>
     <row r="28" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
@@ -5255,12 +5252,6 @@
     <protectedRange password="FC5F" sqref="B5 H5" name="Range1_4_1_1"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:I27"/>
     <mergeCell ref="A25:I25"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
@@ -5268,6 +5259,12 @@
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A22:I22"/>
     <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F2">
     <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
@@ -5321,7 +5318,7 @@
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -5338,30 +5335,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="336" t="s">
+      <c r="A1" s="229" t="s">
         <v>302</v>
       </c>
-      <c r="B1" s="337"/>
-      <c r="C1" s="337"/>
-      <c r="D1" s="337"/>
-      <c r="E1" s="337"/>
-      <c r="F1" s="337"/>
-      <c r="G1" s="337"/>
-      <c r="H1" s="337"/>
-      <c r="I1" s="338"/>
+      <c r="B1" s="230"/>
+      <c r="C1" s="230"/>
+      <c r="D1" s="230"/>
+      <c r="E1" s="230"/>
+      <c r="F1" s="230"/>
+      <c r="G1" s="230"/>
+      <c r="H1" s="230"/>
+      <c r="I1" s="231"/>
     </row>
     <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="339" t="s">
+      <c r="A2" s="232" t="s">
         <v>295</v>
       </c>
-      <c r="B2" s="340"/>
-      <c r="C2" s="340"/>
-      <c r="D2" s="340"/>
-      <c r="E2" s="340"/>
-      <c r="F2" s="340"/>
-      <c r="G2" s="340"/>
-      <c r="H2" s="340"/>
-      <c r="I2" s="341"/>
+      <c r="B2" s="233"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="234"/>
     </row>
     <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -5388,22 +5385,22 @@
       <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="342" t="s">
+      <c r="I3" s="201" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="343" t="s">
+      <c r="A4" s="235" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="344"/>
-      <c r="C4" s="344"/>
-      <c r="D4" s="344"/>
-      <c r="E4" s="344"/>
-      <c r="F4" s="344"/>
-      <c r="G4" s="344"/>
-      <c r="H4" s="344"/>
-      <c r="I4" s="345"/>
+      <c r="B4" s="236"/>
+      <c r="C4" s="236"/>
+      <c r="D4" s="236"/>
+      <c r="E4" s="236"/>
+      <c r="F4" s="236"/>
+      <c r="G4" s="236"/>
+      <c r="H4" s="236"/>
+      <c r="I4" s="237"/>
     </row>
     <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -5435,17 +5432,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="343" t="s">
+      <c r="A6" s="235" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="344"/>
-      <c r="C6" s="344"/>
-      <c r="D6" s="344"/>
-      <c r="E6" s="344"/>
-      <c r="F6" s="344"/>
-      <c r="G6" s="344"/>
-      <c r="H6" s="344"/>
-      <c r="I6" s="345"/>
+      <c r="B6" s="236"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="236"/>
+      <c r="G6" s="236"/>
+      <c r="H6" s="236"/>
+      <c r="I6" s="237"/>
     </row>
     <row r="7" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -5564,17 +5561,17 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="343" t="s">
+      <c r="A11" s="235" t="s">
         <v>314</v>
       </c>
-      <c r="B11" s="344"/>
-      <c r="C11" s="344"/>
-      <c r="D11" s="344"/>
-      <c r="E11" s="344"/>
-      <c r="F11" s="344"/>
-      <c r="G11" s="344"/>
-      <c r="H11" s="344"/>
-      <c r="I11" s="345"/>
+      <c r="B11" s="236"/>
+      <c r="C11" s="236"/>
+      <c r="D11" s="236"/>
+      <c r="E11" s="236"/>
+      <c r="F11" s="236"/>
+      <c r="G11" s="236"/>
+      <c r="H11" s="236"/>
+      <c r="I11" s="237"/>
     </row>
     <row r="12" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
@@ -5592,7 +5589,7 @@
       <c r="E12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="346" t="s">
+      <c r="F12" s="202" t="s">
         <v>301</v>
       </c>
       <c r="G12" s="10" t="s">
@@ -5621,7 +5618,7 @@
       <c r="E13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="346" t="s">
+      <c r="F13" s="202" t="s">
         <v>146</v>
       </c>
       <c r="G13" s="10" t="s">
@@ -5635,51 +5632,51 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="347" t="s">
+      <c r="A14" s="238" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="348"/>
-      <c r="C14" s="348"/>
-      <c r="D14" s="348"/>
-      <c r="E14" s="348"/>
-      <c r="F14" s="348"/>
-      <c r="G14" s="348"/>
-      <c r="H14" s="348"/>
-      <c r="I14" s="349"/>
+      <c r="B14" s="239"/>
+      <c r="C14" s="239"/>
+      <c r="D14" s="239"/>
+      <c r="E14" s="239"/>
+      <c r="F14" s="239"/>
+      <c r="G14" s="239"/>
+      <c r="H14" s="239"/>
+      <c r="I14" s="240"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="218" t="s">
+      <c r="A15" s="203" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="219"/>
+      <c r="B15" s="204"/>
       <c r="C15" s="12"/>
       <c r="D15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="220"/>
-      <c r="F15" s="220"/>
+      <c r="E15" s="205"/>
+      <c r="F15" s="205"/>
       <c r="G15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="221"/>
-      <c r="I15" s="222"/>
+      <c r="H15" s="206"/>
+      <c r="I15" s="207"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="223" t="s">
+      <c r="A16" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="224"/>
+      <c r="B16" s="209"/>
       <c r="C16" s="14"/>
       <c r="D16" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="225"/>
-      <c r="F16" s="226"/>
+      <c r="E16" s="210"/>
+      <c r="F16" s="211"/>
       <c r="G16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="221"/>
-      <c r="I16" s="222"/>
+      <c r="H16" s="206"/>
+      <c r="I16" s="207"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -5688,18 +5685,18 @@
     <protectedRange password="FC5F" sqref="H5 B5 B8:B10 H8:H10" name="Range1_4_1"/>
   </protectedRanges>
   <mergeCells count="12">
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A11:I11"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A14:I14"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F2">
     <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
@@ -5748,7 +5745,7 @@
   </sheetPr>
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A18" sqref="A18:I18"/>
     </sheetView>
@@ -5769,30 +5766,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="215" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="206"/>
+      <c r="B1" s="216"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="217"/>
     </row>
     <row r="2" spans="1:10" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="218" t="s">
         <v>259</v>
       </c>
-      <c r="B2" s="208"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="209"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="220"/>
     </row>
     <row r="3" spans="1:10" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="180" t="s">
@@ -5824,17 +5821,17 @@
       </c>
     </row>
     <row r="4" spans="1:10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="227" t="s">
+      <c r="A4" s="241" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="228"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="228"/>
-      <c r="F4" s="228"/>
-      <c r="G4" s="228"/>
-      <c r="H4" s="228"/>
-      <c r="I4" s="229"/>
+      <c r="B4" s="242"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="243"/>
     </row>
     <row r="5" spans="1:10" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="170">
@@ -5866,17 +5863,17 @@
       </c>
     </row>
     <row r="6" spans="1:10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="230" t="s">
+      <c r="A6" s="244" t="s">
         <v>260</v>
       </c>
-      <c r="B6" s="231"/>
-      <c r="C6" s="231"/>
-      <c r="D6" s="231"/>
-      <c r="E6" s="231"/>
-      <c r="F6" s="231"/>
-      <c r="G6" s="231"/>
-      <c r="H6" s="231"/>
-      <c r="I6" s="232"/>
+      <c r="B6" s="245"/>
+      <c r="C6" s="245"/>
+      <c r="D6" s="245"/>
+      <c r="E6" s="245"/>
+      <c r="F6" s="245"/>
+      <c r="G6" s="245"/>
+      <c r="H6" s="245"/>
+      <c r="I6" s="246"/>
       <c r="J6" s="57"/>
     </row>
     <row r="7" spans="1:10" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -6117,17 +6114,17 @@
       </c>
     </row>
     <row r="15" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="230" t="s">
+      <c r="A15" s="244" t="s">
         <v>314</v>
       </c>
-      <c r="B15" s="231"/>
-      <c r="C15" s="231"/>
-      <c r="D15" s="231"/>
-      <c r="E15" s="231"/>
-      <c r="F15" s="231"/>
-      <c r="G15" s="231"/>
-      <c r="H15" s="231"/>
-      <c r="I15" s="232"/>
+      <c r="B15" s="245"/>
+      <c r="C15" s="245"/>
+      <c r="D15" s="245"/>
+      <c r="E15" s="245"/>
+      <c r="F15" s="245"/>
+      <c r="G15" s="245"/>
+      <c r="H15" s="245"/>
+      <c r="I15" s="246"/>
     </row>
     <row r="16" spans="1:10" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A16" s="155">
@@ -6189,55 +6186,55 @@
       <c r="J17" s="57"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="201" t="s">
+      <c r="A18" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="202"/>
-      <c r="C18" s="202"/>
-      <c r="D18" s="202"/>
-      <c r="E18" s="202"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="202"/>
-      <c r="H18" s="202"/>
-      <c r="I18" s="203"/>
+      <c r="B18" s="213"/>
+      <c r="C18" s="213"/>
+      <c r="D18" s="213"/>
+      <c r="E18" s="213"/>
+      <c r="F18" s="213"/>
+      <c r="G18" s="213"/>
+      <c r="H18" s="213"/>
+      <c r="I18" s="214"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="218" t="s">
+      <c r="A19" s="203" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="219"/>
+      <c r="B19" s="204"/>
       <c r="C19" s="12" t="s">
         <v>256</v>
       </c>
       <c r="D19" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="220"/>
-      <c r="F19" s="220"/>
+      <c r="E19" s="205"/>
+      <c r="F19" s="205"/>
       <c r="G19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="221"/>
-      <c r="I19" s="222"/>
+      <c r="H19" s="206"/>
+      <c r="I19" s="207"/>
     </row>
     <row r="20" spans="1:10" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="223" t="s">
+      <c r="A20" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="224"/>
+      <c r="B20" s="209"/>
       <c r="C20" s="14" t="s">
         <v>148</v>
       </c>
       <c r="D20" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="225"/>
-      <c r="F20" s="226"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="211"/>
       <c r="G20" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="221"/>
-      <c r="I20" s="222"/>
+      <c r="H20" s="206"/>
+      <c r="I20" s="207"/>
     </row>
     <row r="21" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
@@ -6741,11 +6738,6 @@
     <protectedRange password="FC5F" sqref="B5 H5" name="Range1_4_1_1"/>
   </protectedRanges>
   <mergeCells count="12">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A15:I15"/>
     <mergeCell ref="A18:I18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="E19:F19"/>
@@ -6753,6 +6745,11 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A15:I15"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F2">
     <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
@@ -6801,7 +6798,7 @@
   </sheetPr>
   <dimension ref="B1:L45"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -6828,133 +6825,133 @@
       <c r="C2" s="186"/>
       <c r="D2" s="186"/>
       <c r="E2" s="186"/>
-      <c r="F2" s="284"/>
-      <c r="G2" s="285"/>
-      <c r="H2" s="286"/>
-      <c r="I2" s="287" t="s">
+      <c r="F2" s="247"/>
+      <c r="G2" s="248"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="250" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="288"/>
-      <c r="K2" s="288" t="s">
+      <c r="J2" s="251"/>
+      <c r="K2" s="251" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="289"/>
+      <c r="L2" s="252"/>
     </row>
     <row r="3" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="187"/>
       <c r="F3" s="188" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="290"/>
-      <c r="H3" s="291"/>
-      <c r="I3" s="251" t="s">
+      <c r="G3" s="253"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="255" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="252"/>
-      <c r="K3" s="292"/>
-      <c r="L3" s="293"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="257"/>
+      <c r="L3" s="258"/>
     </row>
     <row r="4" spans="2:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="187"/>
       <c r="F4" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="249" t="s">
+      <c r="G4" s="298" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="250"/>
-      <c r="I4" s="251" t="s">
+      <c r="H4" s="299"/>
+      <c r="I4" s="255" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="252"/>
-      <c r="K4" s="253"/>
-      <c r="L4" s="254"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="259"/>
+      <c r="L4" s="260"/>
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="255" t="s">
+      <c r="B5" s="261" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="256"/>
-      <c r="D5" s="256"/>
-      <c r="E5" s="256"/>
-      <c r="F5" s="256"/>
-      <c r="G5" s="256"/>
-      <c r="H5" s="256"/>
-      <c r="I5" s="256"/>
-      <c r="J5" s="256"/>
-      <c r="K5" s="256"/>
-      <c r="L5" s="257"/>
+      <c r="C5" s="262"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="262"/>
+      <c r="G5" s="262"/>
+      <c r="H5" s="262"/>
+      <c r="I5" s="262"/>
+      <c r="J5" s="262"/>
+      <c r="K5" s="262"/>
+      <c r="L5" s="263"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="258"/>
-      <c r="C6" s="259"/>
-      <c r="D6" s="259"/>
-      <c r="E6" s="259"/>
-      <c r="F6" s="259"/>
-      <c r="G6" s="259"/>
-      <c r="H6" s="259"/>
-      <c r="I6" s="259"/>
-      <c r="J6" s="259"/>
-      <c r="K6" s="259"/>
-      <c r="L6" s="260"/>
+      <c r="B6" s="264"/>
+      <c r="C6" s="265"/>
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265"/>
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="266"/>
     </row>
     <row r="7" spans="2:12" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="261"/>
-      <c r="C7" s="262"/>
-      <c r="D7" s="262"/>
-      <c r="E7" s="262"/>
-      <c r="F7" s="262"/>
-      <c r="G7" s="262"/>
-      <c r="H7" s="262"/>
-      <c r="I7" s="262"/>
-      <c r="J7" s="262"/>
-      <c r="K7" s="262"/>
-      <c r="L7" s="263"/>
+      <c r="B7" s="267"/>
+      <c r="C7" s="268"/>
+      <c r="D7" s="268"/>
+      <c r="E7" s="268"/>
+      <c r="F7" s="268"/>
+      <c r="G7" s="268"/>
+      <c r="H7" s="268"/>
+      <c r="I7" s="268"/>
+      <c r="J7" s="268"/>
+      <c r="K7" s="268"/>
+      <c r="L7" s="269"/>
     </row>
     <row r="8" spans="2:12" s="189" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="264" t="s">
+      <c r="B8" s="270" t="s">
         <v>277</v>
       </c>
-      <c r="C8" s="265"/>
-      <c r="D8" s="265"/>
-      <c r="E8" s="266"/>
-      <c r="F8" s="267"/>
-      <c r="G8" s="268"/>
-      <c r="H8" s="271"/>
-      <c r="I8" s="272"/>
-      <c r="J8" s="275"/>
-      <c r="K8" s="272"/>
-      <c r="L8" s="276"/>
+      <c r="C8" s="271"/>
+      <c r="D8" s="271"/>
+      <c r="E8" s="272"/>
+      <c r="F8" s="273"/>
+      <c r="G8" s="274"/>
+      <c r="H8" s="277"/>
+      <c r="I8" s="278"/>
+      <c r="J8" s="281"/>
+      <c r="K8" s="278"/>
+      <c r="L8" s="282"/>
     </row>
     <row r="9" spans="2:12" s="189" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="278" t="s">
+      <c r="B9" s="284" t="s">
         <v>278</v>
       </c>
-      <c r="C9" s="279"/>
-      <c r="D9" s="279"/>
-      <c r="E9" s="280"/>
-      <c r="F9" s="269"/>
-      <c r="G9" s="270"/>
-      <c r="H9" s="273"/>
-      <c r="I9" s="274"/>
-      <c r="J9" s="273"/>
-      <c r="K9" s="274"/>
-      <c r="L9" s="277"/>
+      <c r="C9" s="285"/>
+      <c r="D9" s="285"/>
+      <c r="E9" s="286"/>
+      <c r="F9" s="275"/>
+      <c r="G9" s="276"/>
+      <c r="H9" s="279"/>
+      <c r="I9" s="280"/>
+      <c r="J9" s="279"/>
+      <c r="K9" s="280"/>
+      <c r="L9" s="283"/>
     </row>
     <row r="10" spans="2:12" s="189" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="281" t="s">
+      <c r="B10" s="287" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="282"/>
-      <c r="D10" s="282"/>
-      <c r="E10" s="283"/>
-      <c r="F10" s="269"/>
-      <c r="G10" s="270"/>
-      <c r="H10" s="273"/>
-      <c r="I10" s="274"/>
-      <c r="J10" s="273"/>
-      <c r="K10" s="274"/>
-      <c r="L10" s="277"/>
+      <c r="C10" s="288"/>
+      <c r="D10" s="288"/>
+      <c r="E10" s="289"/>
+      <c r="F10" s="275"/>
+      <c r="G10" s="276"/>
+      <c r="H10" s="279"/>
+      <c r="I10" s="280"/>
+      <c r="J10" s="279"/>
+      <c r="K10" s="280"/>
+      <c r="L10" s="283"/>
     </row>
     <row r="11" spans="2:12" s="36" customFormat="1" ht="106.5" x14ac:dyDescent="0.25">
       <c r="B11" s="190" t="s">
@@ -6992,10 +6989,10 @@
       </c>
     </row>
     <row r="12" spans="2:12" s="196" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B12" s="241">
+      <c r="B12" s="290">
         <v>1</v>
       </c>
-      <c r="C12" s="242" t="s">
+      <c r="C12" s="291" t="s">
         <v>62</v>
       </c>
       <c r="D12" s="21" t="s">
@@ -7023,8 +7020,8 @@
       <c r="L12" s="195"/>
     </row>
     <row r="13" spans="2:12" s="196" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="241"/>
-      <c r="C13" s="242"/>
+      <c r="B13" s="290"/>
+      <c r="C13" s="291"/>
       <c r="D13" s="21" t="s">
         <v>41</v>
       </c>
@@ -7205,10 +7202,10 @@
       <c r="L18" s="195"/>
     </row>
     <row r="19" spans="2:12" s="196" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="243">
+      <c r="B19" s="292">
         <v>7</v>
       </c>
-      <c r="C19" s="246" t="s">
+      <c r="C19" s="295" t="s">
         <v>86</v>
       </c>
       <c r="D19" s="27" t="s">
@@ -7234,8 +7231,8 @@
       <c r="L19" s="195"/>
     </row>
     <row r="20" spans="2:12" s="196" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="244"/>
-      <c r="C20" s="247"/>
+      <c r="B20" s="293"/>
+      <c r="C20" s="296"/>
       <c r="D20" s="27" t="s">
         <v>90</v>
       </c>
@@ -7261,8 +7258,8 @@
       <c r="L20" s="195"/>
     </row>
     <row r="21" spans="2:12" s="196" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="244"/>
-      <c r="C21" s="247"/>
+      <c r="B21" s="293"/>
+      <c r="C21" s="296"/>
       <c r="D21" s="27" t="s">
         <v>49</v>
       </c>
@@ -7288,8 +7285,8 @@
       <c r="L21" s="195"/>
     </row>
     <row r="22" spans="2:12" s="196" customFormat="1" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="245"/>
-      <c r="C22" s="248"/>
+      <c r="B22" s="294"/>
+      <c r="C22" s="297"/>
       <c r="D22" s="27" t="s">
         <v>90</v>
       </c>
@@ -7404,19 +7401,19 @@
       <c r="L25" s="195"/>
     </row>
     <row r="26" spans="2:12" s="196" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="238" t="s">
+      <c r="B26" s="305" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="239"/>
-      <c r="D26" s="239"/>
-      <c r="E26" s="239"/>
-      <c r="F26" s="239"/>
-      <c r="G26" s="239"/>
-      <c r="H26" s="239"/>
-      <c r="I26" s="239"/>
-      <c r="J26" s="239"/>
-      <c r="K26" s="239"/>
-      <c r="L26" s="240"/>
+      <c r="C26" s="306"/>
+      <c r="D26" s="306"/>
+      <c r="E26" s="306"/>
+      <c r="F26" s="306"/>
+      <c r="G26" s="306"/>
+      <c r="H26" s="306"/>
+      <c r="I26" s="306"/>
+      <c r="J26" s="306"/>
+      <c r="K26" s="306"/>
+      <c r="L26" s="307"/>
     </row>
     <row r="27" spans="2:12" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="16">
@@ -7536,7 +7533,7 @@
       <c r="B31" s="16">
         <v>15</v>
       </c>
-      <c r="C31" s="234" t="s">
+      <c r="C31" s="301" t="s">
         <v>129</v>
       </c>
       <c r="D31" s="52" t="s">
@@ -7565,7 +7562,7 @@
     </row>
     <row r="32" spans="2:12" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="16"/>
-      <c r="C32" s="235"/>
+      <c r="C32" s="302"/>
       <c r="D32" s="44" t="s">
         <v>49</v>
       </c>
@@ -7592,7 +7589,7 @@
     </row>
     <row r="33" spans="2:12" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="16"/>
-      <c r="C33" s="235"/>
+      <c r="C33" s="302"/>
       <c r="D33" s="44" t="s">
         <v>49</v>
       </c>
@@ -7619,7 +7616,7 @@
     </row>
     <row r="34" spans="2:12" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="16"/>
-      <c r="C34" s="236" t="s">
+      <c r="C34" s="303" t="s">
         <v>135</v>
       </c>
       <c r="D34" s="44" t="s">
@@ -7650,7 +7647,7 @@
       <c r="B35" s="16">
         <v>16</v>
       </c>
-      <c r="C35" s="237"/>
+      <c r="C35" s="304"/>
       <c r="D35" s="44" t="s">
         <v>49</v>
       </c>
@@ -7753,8 +7750,8 @@
       <c r="B40" s="38"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
-      <c r="E40" s="233"/>
-      <c r="F40" s="233"/>
+      <c r="E40" s="300"/>
+      <c r="F40" s="300"/>
       <c r="G40" s="37" t="s">
         <v>54</v>
       </c>
@@ -7798,8 +7795,8 @@
       <c r="B43" s="38"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
-      <c r="E43" s="233"/>
-      <c r="F43" s="233"/>
+      <c r="E43" s="300"/>
+      <c r="F43" s="300"/>
       <c r="G43" s="37" t="s">
         <v>54</v>
       </c>
@@ -7832,12 +7829,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="B5:L7"/>
@@ -7847,16 +7848,12 @@
     <mergeCell ref="J8:L10"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7876,7 +7873,7 @@
   </sheetPr>
   <dimension ref="B1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
@@ -7903,128 +7900,128 @@
       <c r="C2" s="65"/>
       <c r="D2" s="20"/>
       <c r="E2" s="65"/>
-      <c r="F2" s="326" t="s">
+      <c r="F2" s="308" t="s">
         <v>215</v>
       </c>
-      <c r="G2" s="327"/>
+      <c r="G2" s="309"/>
       <c r="H2" s="66"/>
-      <c r="I2" s="328" t="s">
+      <c r="I2" s="310" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="329"/>
-      <c r="K2" s="329" t="s">
+      <c r="J2" s="311"/>
+      <c r="K2" s="311" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="330"/>
+      <c r="L2" s="312"/>
     </row>
     <row r="3" spans="2:12" ht="18" x14ac:dyDescent="0.2">
       <c r="B3" s="67"/>
       <c r="F3" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="331"/>
-      <c r="H3" s="332"/>
-      <c r="I3" s="299" t="s">
+      <c r="G3" s="313"/>
+      <c r="H3" s="314"/>
+      <c r="I3" s="315" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="300"/>
-      <c r="K3" s="333"/>
-      <c r="L3" s="334"/>
+      <c r="J3" s="316"/>
+      <c r="K3" s="317"/>
+      <c r="L3" s="318"/>
     </row>
     <row r="4" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="67"/>
       <c r="F4" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="297" t="s">
+      <c r="G4" s="319" t="s">
         <v>294</v>
       </c>
-      <c r="H4" s="298"/>
-      <c r="I4" s="299" t="s">
+      <c r="H4" s="320"/>
+      <c r="I4" s="315" t="s">
         <v>155</v>
       </c>
-      <c r="J4" s="300"/>
-      <c r="K4" s="301"/>
-      <c r="L4" s="302"/>
+      <c r="J4" s="316"/>
+      <c r="K4" s="321"/>
+      <c r="L4" s="322"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="303" t="s">
+      <c r="B5" s="323" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="304"/>
-      <c r="D5" s="304"/>
-      <c r="E5" s="304"/>
-      <c r="F5" s="304"/>
-      <c r="G5" s="304"/>
-      <c r="H5" s="304"/>
-      <c r="I5" s="304"/>
-      <c r="J5" s="304"/>
-      <c r="K5" s="304"/>
-      <c r="L5" s="305"/>
+      <c r="C5" s="324"/>
+      <c r="D5" s="324"/>
+      <c r="E5" s="324"/>
+      <c r="F5" s="324"/>
+      <c r="G5" s="324"/>
+      <c r="H5" s="324"/>
+      <c r="I5" s="324"/>
+      <c r="J5" s="324"/>
+      <c r="K5" s="324"/>
+      <c r="L5" s="325"/>
     </row>
     <row r="6" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="306"/>
-      <c r="C6" s="307"/>
-      <c r="D6" s="307"/>
-      <c r="E6" s="307"/>
-      <c r="F6" s="307"/>
-      <c r="G6" s="307"/>
-      <c r="H6" s="307"/>
-      <c r="I6" s="307"/>
-      <c r="J6" s="307"/>
-      <c r="K6" s="307"/>
-      <c r="L6" s="308"/>
+      <c r="B6" s="326"/>
+      <c r="C6" s="327"/>
+      <c r="D6" s="327"/>
+      <c r="E6" s="327"/>
+      <c r="F6" s="327"/>
+      <c r="G6" s="327"/>
+      <c r="H6" s="327"/>
+      <c r="I6" s="327"/>
+      <c r="J6" s="327"/>
+      <c r="K6" s="327"/>
+      <c r="L6" s="328"/>
     </row>
     <row r="7" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="309" t="s">
+      <c r="B7" s="329" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="310"/>
-      <c r="D7" s="310"/>
-      <c r="E7" s="311"/>
-      <c r="F7" s="312" t="s">
+      <c r="C7" s="330"/>
+      <c r="D7" s="330"/>
+      <c r="E7" s="331"/>
+      <c r="F7" s="332" t="s">
         <v>157</v>
       </c>
-      <c r="G7" s="312"/>
-      <c r="H7" s="314" t="s">
+      <c r="G7" s="332"/>
+      <c r="H7" s="334" t="s">
         <v>158</v>
       </c>
-      <c r="I7" s="315"/>
-      <c r="J7" s="318" t="s">
+      <c r="I7" s="335"/>
+      <c r="J7" s="338" t="s">
         <v>159</v>
       </c>
-      <c r="K7" s="314"/>
-      <c r="L7" s="315"/>
+      <c r="K7" s="334"/>
+      <c r="L7" s="335"/>
     </row>
     <row r="8" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B8" s="320" t="s">
+      <c r="B8" s="340" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="321"/>
-      <c r="D8" s="321"/>
-      <c r="E8" s="322"/>
-      <c r="F8" s="313"/>
-      <c r="G8" s="313"/>
-      <c r="H8" s="316"/>
-      <c r="I8" s="317"/>
-      <c r="J8" s="319"/>
-      <c r="K8" s="316"/>
-      <c r="L8" s="317"/>
+      <c r="C8" s="341"/>
+      <c r="D8" s="341"/>
+      <c r="E8" s="342"/>
+      <c r="F8" s="333"/>
+      <c r="G8" s="333"/>
+      <c r="H8" s="336"/>
+      <c r="I8" s="337"/>
+      <c r="J8" s="339"/>
+      <c r="K8" s="336"/>
+      <c r="L8" s="337"/>
     </row>
     <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="323" t="s">
+      <c r="B9" s="343" t="s">
         <v>161</v>
       </c>
-      <c r="C9" s="324"/>
-      <c r="D9" s="324"/>
-      <c r="E9" s="325"/>
-      <c r="F9" s="313"/>
-      <c r="G9" s="313"/>
-      <c r="H9" s="316"/>
-      <c r="I9" s="317"/>
-      <c r="J9" s="319"/>
-      <c r="K9" s="316"/>
-      <c r="L9" s="317"/>
+      <c r="C9" s="344"/>
+      <c r="D9" s="344"/>
+      <c r="E9" s="345"/>
+      <c r="F9" s="333"/>
+      <c r="G9" s="333"/>
+      <c r="H9" s="336"/>
+      <c r="I9" s="337"/>
+      <c r="J9" s="339"/>
+      <c r="K9" s="336"/>
+      <c r="L9" s="337"/>
     </row>
     <row r="10" spans="2:12" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="69" t="s">
@@ -8245,7 +8242,7 @@
         <v>186</v>
       </c>
       <c r="H17" s="87"/>
-      <c r="I17" s="335" t="s">
+      <c r="I17" s="44" t="s">
         <v>187</v>
       </c>
       <c r="J17" s="88" t="s">
@@ -8270,7 +8267,7 @@
         <v>186</v>
       </c>
       <c r="H18" s="87"/>
-      <c r="I18" s="335" t="s">
+      <c r="I18" s="44" t="s">
         <v>187</v>
       </c>
       <c r="J18" s="88" t="s">
@@ -8603,10 +8600,10 @@
       <c r="L29" s="103"/>
     </row>
     <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="294" t="s">
+      <c r="B30" s="346" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="294"/>
+      <c r="C30" s="346"/>
       <c r="E30" s="104"/>
       <c r="F30" s="105"/>
       <c r="G30" s="104"/>
@@ -8739,10 +8736,10 @@
       <c r="M39" s="19"/>
     </row>
     <row r="40" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="295" t="s">
+      <c r="B40" s="347" t="s">
         <v>211</v>
       </c>
-      <c r="C40" s="295"/>
+      <c r="C40" s="347"/>
       <c r="D40" s="124"/>
       <c r="E40" s="125"/>
       <c r="F40" s="131"/>
@@ -8787,10 +8784,10 @@
       <c r="M42" s="19"/>
     </row>
     <row r="43" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="295" t="s">
+      <c r="B43" s="347" t="s">
         <v>212</v>
       </c>
-      <c r="C43" s="295"/>
+      <c r="C43" s="347"/>
       <c r="D43" s="124"/>
       <c r="E43" s="125"/>
       <c r="F43" s="131"/>
@@ -8835,10 +8832,10 @@
       <c r="M45" s="19"/>
     </row>
     <row r="46" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="296" t="s">
+      <c r="B46" s="348" t="s">
         <v>213</v>
       </c>
-      <c r="C46" s="296"/>
+      <c r="C46" s="348"/>
       <c r="D46" s="124"/>
       <c r="E46" s="125"/>
       <c r="F46" s="131"/>
@@ -8883,10 +8880,10 @@
       <c r="M48" s="19"/>
     </row>
     <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="296" t="s">
+      <c r="B49" s="348" t="s">
         <v>214</v>
       </c>
-      <c r="C49" s="296"/>
+      <c r="C49" s="348"/>
       <c r="D49" s="124"/>
       <c r="E49" s="125"/>
       <c r="F49" s="131"/>
@@ -8973,12 +8970,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B49:C49"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
@@ -8989,15 +8985,16 @@
     <mergeCell ref="J7:L9"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.39370078740157483" header="0" footer="0.11811023622047245"/>
-  <pageSetup paperSize="8" scale="84" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="85" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;CPage &amp;P&amp;RFY16-04-Underground Ducts</oddFooter>
   </headerFooter>
@@ -9013,6 +9010,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E41FA9ABFA01BC488658C0C68493C609" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18d3085e37b27c7fc65fe9edca49d8d2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0c3c2b2f-979a-4ad0-a2e9-5d655f9a6079" xmlns:ns3="f5780108-39a8-4e12-bb52-4cef056091cc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2af8da3a33a33e2318db217d042ed7cb" ns2:_="" ns3:_="">
     <xsd:import namespace="0c3c2b2f-979a-4ad0-a2e9-5d655f9a6079"/>
@@ -9235,36 +9247,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DBE7359-2F6A-45F0-A3CA-3AD4A74BF362}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0AC737C-72CE-476E-86EB-A694F30782A7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0c3c2b2f-979a-4ad0-a2e9-5d655f9a6079"/>
-    <ds:schemaRef ds:uri="f5780108-39a8-4e12-bb52-4cef056091cc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9287,9 +9273,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0AC737C-72CE-476E-86EB-A694F30782A7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DBE7359-2F6A-45F0-A3CA-3AD4A74BF362}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0c3c2b2f-979a-4ad0-a2e9-5d655f9a6079"/>
+    <ds:schemaRef ds:uri="f5780108-39a8-4e12-bb52-4cef056091cc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>